--- a/Perf Test Exercise/Summary/Summary.xlsx
+++ b/Perf Test Exercise/Summary/Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3615add60147414/Desktop/Assignment Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3615add60147414/Desktop/Assignment Data/Perf Test Exercise/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{61FC208C-D427-4C83-AA69-37DDE1D50BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0366FB7A-CC77-4B06-92D3-C38630C88620}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{61FC208C-D427-4C83-AA69-37DDE1D50BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE09E1C-F663-47D2-9D58-F4ED30360B9B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{5FC5A59A-7969-4237-BEAA-3E0ADE4B0BA7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>HTTP Request - Create Authors</t>
   </si>
@@ -77,12 +77,21 @@
   <si>
     <t>100in20</t>
   </si>
+  <si>
+    <t>Latency of create endpoint is significantly higher than all other services, of order of range 600+ ms. While other services perform within 100 to 200 ms range.</t>
+  </si>
+  <si>
+    <t>Create and get all fare poor compared all other endpoint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throughput for all services stabilizes as number of threads/parallel users increase. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +107,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -134,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,6 +187,5158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Create Authors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughput!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.90498000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.71333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6711499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8828100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-782C-49DE-8CC0-E6799E8D760B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Get all authors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughput!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.37741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4444400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3995699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3756000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8176500000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-782C-49DE-8CC0-E6799E8D760B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Update Authors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughput!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.26797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5495900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.57911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5989699999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8567299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-782C-49DE-8CC0-E6799E8D760B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Get By AuthorId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughput!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.4074099999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5392599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4065700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5508300000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8562500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-782C-49DE-8CC0-E6799E8D760B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Get By BookId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughput!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0922000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4543400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4089099999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5130400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8374600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-782C-49DE-8CC0-E6799E8D760B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Delete By AuthorId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Throughput!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7142900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4543400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4124299999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4385300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8306800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-782C-49DE-8CC0-E6799E8D760B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1557991408"/>
+        <c:axId val="1557994320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1557991408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557994320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1557994320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1557991408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AverageSampleTime!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Create Authors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AverageSampleTime!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AverageSampleTime!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9271-4117-B31D-D92FBF452E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AverageSampleTime!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Get all authors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AverageSampleTime!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AverageSampleTime!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9271-4117-B31D-D92FBF452E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AverageSampleTime!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Update Authors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AverageSampleTime!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AverageSampleTime!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9271-4117-B31D-D92FBF452E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AverageSampleTime!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Get By AuthorId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AverageSampleTime!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AverageSampleTime!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9271-4117-B31D-D92FBF452E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AverageSampleTime!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Get By BookId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AverageSampleTime!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AverageSampleTime!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9271-4117-B31D-D92FBF452E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AverageSampleTime!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Delete By AuthorId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AverageSampleTime!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AverageSampleTime!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9271-4117-B31D-D92FBF452E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1557991408"/>
+        <c:axId val="1557994320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1557991408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557994320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1557994320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1557991408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Create Authors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>748.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>773.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>651.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FD7-43D0-8719-3F0F9239B031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Get all authors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7FD7-43D0-8719-3F0F9239B031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Update Authors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7FD7-43D0-8719-3F0F9239B031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Get By AuthorId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7FD7-43D0-8719-3F0F9239B031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Get By BookId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7FD7-43D0-8719-3F0F9239B031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTTP Request - Delete By AuthorId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1in1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10in2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25in5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50in10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100in20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7FD7-43D0-8719-3F0F9239B031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1557991408"/>
+        <c:axId val="1557994320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1557991408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557994320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1557994320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1557991408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CFB4DB-BBCA-4742-A321-FC85892215C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8C96A9-7151-4304-867D-1B4C7C6BD972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FD0741-9C37-FE47-EC4E-E270159F6361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,10 +5638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9FFD80-BA4D-4759-A5E2-B241ED1F3606}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,178 +5650,203 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="2">
         <v>0.90498000000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="2">
         <v>3.71333</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="2">
         <v>4.6711499999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E4" s="2">
         <v>3.9398</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F4" s="2">
         <v>4.8828100000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="2">
         <v>1.37741</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="2">
         <v>4.4444400000000002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D5" s="2">
         <v>5.3995699999999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E5" s="2">
         <v>4.3756000000000004</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F5" s="2">
         <v>4.8176500000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>3.26797</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="2">
         <v>4.5495900000000002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="2">
         <v>5.57911</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="2">
         <v>4.5989699999999996</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F6" s="2">
         <v>4.8567299999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>7.4074099999999996</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>4.5392599999999996</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <v>5.4065700000000003</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="2">
         <v>4.5508300000000004</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F7" s="2">
         <v>4.8562500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>7.0922000000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="2">
         <v>4.4543400000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <v>5.4089099999999997</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="2">
         <v>4.5130400000000002</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="2">
         <v>4.8374600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>5.7142900000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>4.4543400000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>5.4124299999999996</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="2">
         <v>4.4385300000000001</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="2">
         <v>4.8306800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>2.3157100000000002</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>16.295490000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>23.65184</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="2">
         <v>20.930720000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="2">
         <v>26.957809999999998</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2DEBF-E4CB-42CC-ABA0-F15FC5B717D3}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,178 +5858,233 @@
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="2">
         <v>1105</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="2">
         <v>631</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="2">
         <v>646</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E4" s="2">
         <v>1291</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F4" s="2">
         <v>871</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="2">
         <v>726</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="2">
         <v>316</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D5" s="2">
         <v>371</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E5" s="2">
         <v>768</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F5" s="2">
         <v>686</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>306</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="2">
         <v>148</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="2">
         <v>139</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="2">
         <v>154</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F6" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>135</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>141</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <v>152</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="2">
         <v>155</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F7" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>141</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="2">
         <v>145</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <v>140</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="2">
         <v>161</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="2">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>175</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>137</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>139</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="2">
         <v>159</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="2">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>431</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>253</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>264</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="2">
         <v>448</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="2">
         <v>387</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3ABBA3-5C70-496A-82E0-B32A6D5C7648}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,179 +6094,205 @@
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="2">
         <v>794</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="2">
         <v>748.6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="2">
         <v>696</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E4" s="2">
         <v>773.78</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F4" s="2">
         <v>651.21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="2">
         <v>136</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="2">
         <v>157.19999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D5" s="2">
         <v>173.88</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E5" s="2">
         <v>161.76</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F5" s="2">
         <v>161.87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>287</v>
-      </c>
-      <c r="C4" s="2">
-        <v>138.30000000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>164.96</v>
-      </c>
-      <c r="E4" s="2">
-        <v>149.32</v>
-      </c>
-      <c r="F4" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>138</v>
-      </c>
-      <c r="C5" s="2">
-        <v>137.19999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>175.8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>145.16</v>
-      </c>
-      <c r="F5" s="2">
-        <v>146.29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>137</v>
       </c>
       <c r="C6" s="2">
         <v>138.30000000000001</v>
       </c>
       <c r="D6" s="2">
+        <v>164.96</v>
+      </c>
+      <c r="E6" s="2">
+        <v>149.32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>175.8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>145.16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>146.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>137</v>
+      </c>
+      <c r="C8" s="2">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="D8" s="2">
         <v>170.52</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="2">
         <v>143.58000000000001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="2">
         <v>145.79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>139</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>138.30000000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>169.96</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="2">
         <v>147.4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="2">
         <v>152.22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>271.83</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>242.98</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>258.52</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="2">
         <v>253.5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="2">
         <v>235.06</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Perf Test Exercise/Summary/Summary.xlsx
+++ b/Perf Test Exercise/Summary/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3615add60147414/Desktop/Assignment Data/Perf Test Exercise/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{61FC208C-D427-4C83-AA69-37DDE1D50BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE09E1C-F663-47D2-9D58-F4ED30360B9B}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{61FC208C-D427-4C83-AA69-37DDE1D50BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DA2ADDF-471C-4CE0-ABC1-AFC430D33160}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{5FC5A59A-7969-4237-BEAA-3E0ADE4B0BA7}"/>
   </bookViews>
@@ -81,10 +81,10 @@
     <t>Latency of create endpoint is significantly higher than all other services, of order of range 600+ ms. While other services perform within 100 to 200 ms range.</t>
   </si>
   <si>
-    <t>Create and get all fare poor compared all other endpoint.</t>
+    <t xml:space="preserve">Throughput for all services stabilizes as number of threads/parallel users increase. </t>
   </si>
   <si>
-    <t xml:space="preserve">Throughput for all services stabilizes as number of threads/parallel users increase. </t>
+    <t>Create and get all fare poor compared all other endpoint. Overall performance of application needs singnificant improvement as sample time recorded are too high considering functional complexity.</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,7 +170,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5641,7 +5644,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5650,26 +5653,26 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -5858,9 +5861,9 @@
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6084,7 +6087,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6094,26 +6097,26 @@
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
